--- a/src/main/resources/datapool/TestData.xlsx
+++ b/src/main/resources/datapool/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mangesh.gadekar\git\rspl_qa_training_certification_r-d\src\main\resources\datapool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mangesh.gadekar\git\repository\ProfeessionalCredit_AutomationFramework\src\main\resources\datapool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896A6823-6CC9-4B5B-9183-76C03AEE87D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144EAB9E-9CC1-477A-80AC-8239F667C20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{E8580097-6381-41A7-A50E-8A6FA3C5DEEE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{E8580097-6381-41A7-A50E-8A6FA3C5DEEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>REPORT_FILENAME</t>
   </si>
@@ -90,9 +90,6 @@
     <t>ClientName2</t>
   </si>
   <si>
-    <t>UTAH STATE TAX COMMISSION</t>
-  </si>
-  <si>
     <t>Date Please</t>
   </si>
   <si>
@@ -115,9 +112,6 @@
   </si>
   <si>
     <t>No Record(s) Found</t>
-  </si>
-  <si>
-    <t>Test ODR</t>
   </si>
   <si>
     <t>Test Data for filter</t>
@@ -170,6 +164,9 @@
   <si>
     <t xml:space="preserve">	 
 Client #</t>
+  </si>
+  <si>
+    <t>red exclusive</t>
   </si>
 </sst>
 </file>
@@ -289,11 +286,11 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1170,7 +1167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97ECB384-D720-4710-967F-1E6C131C4AEE}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O22" activeCellId="1" sqref="A3 O22"/>
     </sheetView>
   </sheetViews>
@@ -1184,32 +1181,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>46</v>
+      <c r="A1" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="J1" s="7"/>
     </row>
@@ -1218,16 +1215,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="F2" s="8">
         <v>1813725.54</v>
@@ -1239,10 +1236,10 @@
         <v>1813725.54</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1268,8 +1265,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="B7:K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" activeCellId="1" sqref="G3 H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1293,48 +1290,48 @@
         <v>18</v>
       </c>
       <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G2" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
-        <v>31</v>
+      <c r="B5" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1347,33 +1344,33 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B6" s="9"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
@@ -1381,16 +1378,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="G7" s="6">
         <v>1813725.54</v>
@@ -1402,7 +1399,7 @@
         <v>1813725.54</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
